--- a/manage/表格备份/2023-05-01.xlsx
+++ b/manage/表格备份/2023-05-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="159">
   <si>
     <t>_id</t>
   </si>
@@ -79,9 +79,6 @@
     <t>deathTime</t>
   </si>
   <si>
-    <t>Administrator</t>
-  </si>
-  <si>
     <t>643e6e60ab06c0d8128043d7</t>
   </si>
   <si>
@@ -139,7 +136,7 @@
     <t>643e6e60ab06c0d8128043d8</t>
   </si>
   <si>
-    <t>643e7239e766bb2975be65e9</t>
+    <t>644f4ad3819ce8deee3f7b59</t>
   </si>
   <si>
     <t>太郎</t>
@@ -460,7 +457,7 @@
     <t>Tue Apr 18 2023 19:05:49 GMT+0800 (中国标准时间)</t>
   </si>
   <si>
-    <t>Wed Apr 19 2023 09:15:56 GMT+0800 (中国标准时间)</t>
+    <t>Mon May 01 2023 13:16:16 GMT+0800 (中国标准时间)</t>
   </si>
   <si>
     <t>2019-03</t>
@@ -851,13 +848,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -921,1020 +918,1014 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" t="s">
         <v>85</v>
       </c>
-      <c r="I6" t="s">
-        <v>86</v>
-      </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" t="s">
         <v>85</v>
       </c>
-      <c r="I14" t="s">
-        <v>86</v>
-      </c>
       <c r="J14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" t="s">
         <v>82</v>
       </c>
-      <c r="H17" t="s">
-        <v>83</v>
-      </c>
       <c r="I17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" t="s">
         <v>85</v>
       </c>
-      <c r="I18" t="s">
-        <v>86</v>
-      </c>
       <c r="J18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I20" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20" t="s">
         <v>89</v>
       </c>
-      <c r="J20" t="s">
-        <v>90</v>
-      </c>
       <c r="K20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L20" t="s">
+        <v>105</v>
+      </c>
+      <c r="M20" t="s">
         <v>106</v>
       </c>
-      <c r="M20" t="s">
-        <v>107</v>
-      </c>
       <c r="N20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" t="s">
         <v>85</v>
       </c>
-      <c r="I21" t="s">
-        <v>86</v>
-      </c>
       <c r="J21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s">
+        <v>100</v>
+      </c>
+      <c r="L21" t="s">
         <v>101</v>
       </c>
-      <c r="L21" t="s">
-        <v>102</v>
-      </c>
       <c r="N21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U21" t="s">
-        <v>158</v>
-      </c>
-      <c r="W21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
